--- a/output/fit_clients/fit_round_106.xlsx
+++ b/output/fit_clients/fit_round_106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1792956821.56313</v>
+        <v>1903901675.774496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1076247513251588</v>
+        <v>0.1012953059130126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03657284602346429</v>
+        <v>0.04050282228464208</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>896478378.5239097</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1759812194.185118</v>
+        <v>2561398163.941502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1344946935169149</v>
+        <v>0.1699046705991406</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0305109155934243</v>
+        <v>0.04440575691185402</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>879906099.8974252</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4674124058.832829</v>
+        <v>3755755920.979639</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1250716820350928</v>
+        <v>0.1074039441797553</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02767929258978287</v>
+        <v>0.03581480706335974</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2337062091.285505</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2992611607.772203</v>
+        <v>3128545077.594379</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1013536091496963</v>
+        <v>0.09006365801522881</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03803390020779061</v>
+        <v>0.0357524063117786</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>43</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1496305874.189947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2860360287.5581</v>
+        <v>2793828922.212963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1156886867278767</v>
+        <v>0.0914141682943964</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03695118624675938</v>
+        <v>0.05407025520064426</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1430180080.198741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2804651313.945667</v>
+        <v>1924988598.004881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08481187303646676</v>
+        <v>0.08512612767341179</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04918142380040889</v>
+        <v>0.0305243426880766</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>32</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1402325640.646293</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3251824479.235358</v>
+        <v>3793901567.865417</v>
       </c>
       <c r="F8" t="n">
-        <v>0.153683735515231</v>
+        <v>0.198801567263458</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02171747155825118</v>
+        <v>0.03232266100212623</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1625912322.814025</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1834305448.551777</v>
+        <v>1822160579.663258</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1761430510604742</v>
+        <v>0.1215709027321313</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02535787848961588</v>
+        <v>0.0314500009358516</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>917152773.8109046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4998890996.878685</v>
+        <v>3678470877.101876</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1434473052548765</v>
+        <v>0.1865392996197313</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0480929764717249</v>
+        <v>0.03629647197970053</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>46</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2499445597.590633</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3901395534.866554</v>
+        <v>3347762602.587729</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1285299337957237</v>
+        <v>0.1272193328952039</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04208444611280546</v>
+        <v>0.03692041374637733</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>44</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1950697773.221781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2879384506.243044</v>
+        <v>2492459907.874589</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1287212332239853</v>
+        <v>0.1984338991289025</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0502230286759964</v>
+        <v>0.03320275914341343</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>37</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1439692260.023705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3258547490.150504</v>
+        <v>3230145549.02835</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08506720021400459</v>
+        <v>0.09650362110946815</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01988142712072623</v>
+        <v>0.02407896572015736</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>36</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1629273837.610592</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3079924293.017378</v>
+        <v>3179781642.765599</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1815437144323345</v>
+        <v>0.1799021512641824</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0275431164795537</v>
+        <v>0.04110482061558964</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>34</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1539962175.110198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1184146908.609437</v>
+        <v>1535424289.370386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.088321961578625</v>
+        <v>0.06586686743666183</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03759295841398587</v>
+        <v>0.04467697578106292</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>592073468.1406868</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1791080251.555612</v>
+        <v>1784402913.17294</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09639064986293659</v>
+        <v>0.1145565682892162</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04935065620875762</v>
+        <v>0.04977080674484574</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>895540219.8670707</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3656401883.232826</v>
+        <v>5300470134.148697</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1259518223978402</v>
+        <v>0.1725870320504924</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0418396598007661</v>
+        <v>0.04593191962855236</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>31</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1828200993.148629</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2824481061.461239</v>
+        <v>3487242555.983225</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1321359944845109</v>
+        <v>0.1339834376630666</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02890980624991882</v>
+        <v>0.02697258042505368</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>35</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1412240573.608032</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1172759525.408979</v>
+        <v>996561938.3312674</v>
       </c>
       <c r="F19" t="n">
-        <v>0.121223813485198</v>
+        <v>0.1593018429486188</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02170247416151485</v>
+        <v>0.02438627835881365</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>586379833.9095978</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1956209986.811578</v>
+        <v>1856157052.518588</v>
       </c>
       <c r="F20" t="n">
-        <v>0.10197842812715</v>
+        <v>0.1187290453065159</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02055116328546787</v>
+        <v>0.03047284166293342</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>978105024.3722469</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2341850087.869082</v>
+        <v>1913387499.95196</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07422310858096995</v>
+        <v>0.09501653408808849</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04433672684433507</v>
+        <v>0.0293415294524871</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1170925047.144395</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3021281177.108405</v>
+        <v>3899508690.120135</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09207010261316929</v>
+        <v>0.08832370881066835</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04520789005560353</v>
+        <v>0.0535402883272217</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>29</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1510640648.74897</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1450777587.05774</v>
+        <v>1387355759.28831</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1135762537090547</v>
+        <v>0.1517078221280189</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05104445299265155</v>
+        <v>0.04829033415062495</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>725388787.7035189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2778969558.187142</v>
+        <v>3731792105.248506</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1299140679816721</v>
+        <v>0.1488085334997265</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02392235674516732</v>
+        <v>0.03698804877107246</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>31</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1389484829.110548</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1246583213.322088</v>
+        <v>949439321.9879048</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1065016766276462</v>
+        <v>0.08044923780077083</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0286892829091188</v>
+        <v>0.02743194546714126</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>623291613.8506396</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1103052928.492159</v>
+        <v>1265595683.28305</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0936434702119575</v>
+        <v>0.1143341257326923</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02640936446760022</v>
+        <v>0.03124402581352062</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>551526461.4723569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3311407494.640973</v>
+        <v>3595085379.331196</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1085780706344</v>
+        <v>0.1493024511557497</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02632382829788796</v>
+        <v>0.02281644458058832</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1655703791.631075</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3099422886.151038</v>
+        <v>3336679283.894088</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1379400774756386</v>
+        <v>0.1185528011145712</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04590765541703559</v>
+        <v>0.0334329949242357</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>34</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1549711462.869637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5550460011.100447</v>
+        <v>5537159248.840178</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1096253112638587</v>
+        <v>0.1441686567174809</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03759680303747887</v>
+        <v>0.0449501122299654</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>50</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2775229914.856682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1666573369.057527</v>
+        <v>1821495401.65045</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1041406120147695</v>
+        <v>0.08922740206301709</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0279025726437898</v>
+        <v>0.03111698959758747</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>833286683.9296236</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1399130606.994079</v>
+        <v>1351499188.470834</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1083838667048941</v>
+        <v>0.1088251210292524</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05108505193792608</v>
+        <v>0.04301952044571693</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>699565208.0407987</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1147078487.260054</v>
+        <v>1772596725.814979</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09150005717707355</v>
+        <v>0.09188849872226378</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02341369312172037</v>
+        <v>0.02998337473168531</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>573539238.8441426</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2842817789.386292</v>
+        <v>2245064097.208561</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1901627004219604</v>
+        <v>0.1398050019023249</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04795402724795313</v>
+        <v>0.06024190205129033</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>30</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1421408903.641546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>952515980.3999034</v>
+        <v>1058725700.042785</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09911203025889359</v>
+        <v>0.09844232319745377</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02297691908731678</v>
+        <v>0.02739591347390751</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>476258035.8122918</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>985222413.7033842</v>
+        <v>966196103.6968715</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1151899529967435</v>
+        <v>0.1056344765906709</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0346364155032</v>
+        <v>0.02863092368002434</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>492611228.6125093</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3007166775.728402</v>
+        <v>2813036358.333223</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1524015310309612</v>
+        <v>0.1744651667910278</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01978608389657413</v>
+        <v>0.01873469110319283</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>26</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1503583369.128134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2726351232.326053</v>
+        <v>2714399946.653028</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07057594194208777</v>
+        <v>0.1069459674576985</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03974826730641728</v>
+        <v>0.02777138716723094</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>28</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1363175743.302995</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1571021679.908084</v>
+        <v>1472148552.28003</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1054530297410185</v>
+        <v>0.110202472094461</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0294344394671918</v>
+        <v>0.02790363277936823</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>785510879.1130084</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2122656132.316994</v>
+        <v>1724571743.210742</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1736983874761562</v>
+        <v>0.1634226527229267</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03048233852761877</v>
+        <v>0.0240094089263268</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1061328042.021556</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1324629672.593826</v>
+        <v>1273950611.447373</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1337628811565747</v>
+        <v>0.1049769668630264</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04038758222554182</v>
+        <v>0.03641710355608097</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>662314846.3419937</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2537250158.644671</v>
+        <v>2679319823.006532</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1022183182759058</v>
+        <v>0.1467208884654975</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04246290969875693</v>
+        <v>0.04555549781437249</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>25</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1268625100.863522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3121721832.787556</v>
+        <v>3288793517.570125</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1220682849039091</v>
+        <v>0.0827230666013643</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03842244349762206</v>
+        <v>0.02877778349744228</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>35</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1560860885.147201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2786192473.699693</v>
+        <v>2858213854.945186</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1269277396689744</v>
+        <v>0.1425420078176111</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02491206976314034</v>
+        <v>0.02261388051302959</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>34</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1393096256.649547</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1919459901.878789</v>
+        <v>1968100900.499335</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09748017297748643</v>
+        <v>0.06848176032336561</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02817940780675191</v>
+        <v>0.0351754510419633</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>959730041.1439852</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2277040204.273725</v>
+        <v>2204608137.53633</v>
       </c>
       <c r="F45" t="n">
-        <v>0.155879250558474</v>
+        <v>0.1508376786288251</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05441945250697361</v>
+        <v>0.05210448014738547</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1138520120.844659</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3581872047.340178</v>
+        <v>5034116276.851143</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1554213463611055</v>
+        <v>0.1249198442141525</v>
       </c>
       <c r="G46" t="n">
-        <v>0.043433368626432</v>
+        <v>0.05802987293181416</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>39</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1790935969.237621</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3491901406.615699</v>
+        <v>3967890833.225636</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1879237069658921</v>
+        <v>0.124059791158901</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05352921203461408</v>
+        <v>0.0435103101372682</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>28</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1745950673.584732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4641108541.546786</v>
+        <v>3974688594.440127</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09030145864173078</v>
+        <v>0.07108599864452639</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03079930090444735</v>
+        <v>0.02908195142415526</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2320554267.812515</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1818243626.162617</v>
+        <v>1536112267.437264</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1543242334369973</v>
+        <v>0.1237098168751336</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03877361374012316</v>
+        <v>0.0350969560480547</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>909121795.5667418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2727566760.620027</v>
+        <v>2830566140.707243</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1513862625445206</v>
+        <v>0.1279979129330634</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05127782660071911</v>
+        <v>0.03593465123839963</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>36</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1363783459.453988</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1427331580.837003</v>
+        <v>1016499817.566158</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1927407617700292</v>
+        <v>0.1613856894539485</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04088075008420704</v>
+        <v>0.04489892451606595</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>713665805.0437577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5266782330.337411</v>
+        <v>4704809693.746209</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0892957519864175</v>
+        <v>0.1285077505316902</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05034303012519437</v>
+        <v>0.05722795051425462</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>44</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2633391147.023239</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3421964533.731116</v>
+        <v>2397631237.212095</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1590744426226916</v>
+        <v>0.1802560727599035</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02486836747392367</v>
+        <v>0.02597979181056845</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>30</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1710982270.12969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4881989070.614855</v>
+        <v>4490497126.108974</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1349730518095869</v>
+        <v>0.1087987783181635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03412219761056243</v>
+        <v>0.05145165430785645</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2440994668.560942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3722143893.257901</v>
+        <v>3714617212.69009</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1782996043392621</v>
+        <v>0.146720912219012</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02600697476017213</v>
+        <v>0.03251213539572541</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1861071909.197414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1772710430.429937</v>
+        <v>1642123420.127132</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1340374749082875</v>
+        <v>0.1151919026755187</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05130597002131085</v>
+        <v>0.04170285676741646</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>886355216.9704188</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4349166937.936518</v>
+        <v>3430585489.891942</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1407902430160376</v>
+        <v>0.1353103385198084</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01786300841753751</v>
+        <v>0.01920689465819353</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>34</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2174583586.573983</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1314093655.427187</v>
+        <v>1625299866.569678</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1325792927936463</v>
+        <v>0.1612725814011965</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0282682064346627</v>
+        <v>0.0366382741101839</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>657046875.7496433</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5255304722.193164</v>
+        <v>3892391725.470011</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1105428210187524</v>
+        <v>0.1110103754349047</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03412331735635253</v>
+        <v>0.04967890775049382</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2627652276.444704</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2290835692.762489</v>
+        <v>2851048428.181097</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2031946631267905</v>
+        <v>0.1409455092937455</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02229354627347901</v>
+        <v>0.02722473564630516</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>33</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1145417842.296726</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2794123903.697882</v>
+        <v>2159786725.841815</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1687577823380311</v>
+        <v>0.1279445599541484</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0248992105628146</v>
+        <v>0.02013823198316204</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>37</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1397061951.669141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1931642774.151891</v>
+        <v>1461770523.098215</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1809418703517782</v>
+        <v>0.1467588547816708</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03401545338266684</v>
+        <v>0.04404853700066792</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>965821434.8442909</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4138931626.935558</v>
+        <v>5313595934.317736</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08059439157835359</v>
+        <v>0.09115447313734117</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03997040325784701</v>
+        <v>0.04713783908444938</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>30</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2069465869.577636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4432398021.28188</v>
+        <v>4226143701.043664</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1599921767311558</v>
+        <v>0.1316444293140497</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02586631543790495</v>
+        <v>0.03240166016554794</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>33</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2216199076.856619</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5837711255.526278</v>
+        <v>4333094280.168683</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1535779452728345</v>
+        <v>0.1401915354853555</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02533241603096795</v>
+        <v>0.02496045461322279</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>39</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2918855536.618886</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3934795073.761671</v>
+        <v>5623634844.621808</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1116142820590897</v>
+        <v>0.1448142935408343</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04007193734094909</v>
+        <v>0.03169266823032509</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>31</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1967397506.928598</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3397047153.783659</v>
+        <v>2559977318.188088</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09267483381746042</v>
+        <v>0.06464591829327174</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04290007819000755</v>
+        <v>0.04639546054707586</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>34</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1698523561.511163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5635490224.068034</v>
+        <v>5416754231.52547</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1203051052609461</v>
+        <v>0.1059454099566427</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03417885437672617</v>
+        <v>0.03639926108318756</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>34</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2817745206.870114</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1963393360.755641</v>
+        <v>2283095511.720334</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1584744871348613</v>
+        <v>0.1733383731944898</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05379391359918229</v>
+        <v>0.04337424265519021</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>981696680.5171337</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2932032599.572787</v>
+        <v>2398934213.155103</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1030380692598887</v>
+        <v>0.08137522657039596</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04171056889882648</v>
+        <v>0.03852422610093155</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>30</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1466016272.274659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4914573451.887263</v>
+        <v>4549815141.647563</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1324165523334951</v>
+        <v>0.118240062340615</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03013279453425684</v>
+        <v>0.02536712550997046</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>39</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2457286825.224268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1569454866.693451</v>
+        <v>2087280649.69081</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1041324315093928</v>
+        <v>0.08816940943352795</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04733763499945956</v>
+        <v>0.03525478041190179</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>784727449.0812163</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3481952435.166614</v>
+        <v>2276132844.360873</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1084915737353294</v>
+        <v>0.104610815979043</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04752727277006217</v>
+        <v>0.04894422996259987</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>41</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1740976169.38209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3312507054.572297</v>
+        <v>2997060364.933034</v>
       </c>
       <c r="F74" t="n">
-        <v>0.172359244056137</v>
+        <v>0.1790041972030271</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02954781632826241</v>
+        <v>0.02789613894617421</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>36</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1656253565.619665</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1551583827.759065</v>
+        <v>2197055040.346684</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1520287615322481</v>
+        <v>0.1408171494984717</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03373120093052087</v>
+        <v>0.02463521303669822</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>775791920.1046927</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5206631863.844099</v>
+        <v>3295838849.385679</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1132993365286055</v>
+        <v>0.09918668884603171</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02776000224990146</v>
+        <v>0.03371530779429041</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>23</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2603315967.209712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1528959736.487648</v>
+        <v>2251595270.324373</v>
       </c>
       <c r="F77" t="n">
-        <v>0.133063575430951</v>
+        <v>0.1825908084494592</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02985685204943187</v>
+        <v>0.031507880750126</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>764479860.1232651</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4667802963.238854</v>
+        <v>4005820121.101431</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1369024961161621</v>
+        <v>0.100829543758311</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04750126729591194</v>
+        <v>0.05245972331328413</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>38</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2333901399.49291</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1161690690.147839</v>
+        <v>1569570032.629419</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1749150967748579</v>
+        <v>0.1713734979902336</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02569872670166666</v>
+        <v>0.0277140728575102</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>580845320.0212464</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4513976288.761077</v>
+        <v>3717516564.617943</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07684212865857985</v>
+        <v>0.06960258708372913</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03805461739331428</v>
+        <v>0.02519901228470769</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>22</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2256988169.342113</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4002000388.253739</v>
+        <v>3868291590.751225</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1161577113075734</v>
+        <v>0.1030315825352555</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02624908974767914</v>
+        <v>0.0253391532094032</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2001000157.340688</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3936282299.512397</v>
+        <v>4162162089.463932</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1831489653883445</v>
+        <v>0.1952632468082137</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02926500814033346</v>
+        <v>0.02565775373126119</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1968141192.966647</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2133534028.517177</v>
+        <v>2175704761.557829</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1074092718706025</v>
+        <v>0.09734396506165023</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03780082234037182</v>
+        <v>0.03321466059387569</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1066767016.087296</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2474666570.578894</v>
+        <v>1935537727.802333</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08495451539234361</v>
+        <v>0.07690779127054768</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05169990427187343</v>
+        <v>0.03542492211197656</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1237333220.710492</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2233906399.217825</v>
+        <v>2829953406.570291</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1365722675501962</v>
+        <v>0.1152783376332159</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04376130465978507</v>
+        <v>0.04437743887661678</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>38</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1116953175.128141</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1983411391.693733</v>
+        <v>1785657672.731545</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1306670866800455</v>
+        <v>0.1116686359519498</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0253052400552441</v>
+        <v>0.02620984019620581</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>991705721.1092004</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1327203013.096423</v>
+        <v>1043325764.818855</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1402448052078289</v>
+        <v>0.1165033435941231</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02993641306460902</v>
+        <v>0.03941314934398765</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>663601594.6789572</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2559835958.517847</v>
+        <v>2573501155.951295</v>
       </c>
       <c r="F88" t="n">
-        <v>0.147354647903586</v>
+        <v>0.1752243182124336</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02892203519486479</v>
+        <v>0.03265570690080764</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>42</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1279917966.148291</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3364835640.069871</v>
+        <v>3471282430.615432</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1339426861033344</v>
+        <v>0.1356690925415206</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02709359037336753</v>
+        <v>0.03527339653672006</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>35</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1682417831.340022</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1380333238.148609</v>
+        <v>1730080000.11842</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1096573775528702</v>
+        <v>0.1048959664191295</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04018285656397565</v>
+        <v>0.04062962282824387</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>690166575.8058383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1714752125.913817</v>
+        <v>1842448702.751477</v>
       </c>
       <c r="F91" t="n">
-        <v>0.12015518596718</v>
+        <v>0.123079875376316</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04100510818277924</v>
+        <v>0.05638900240827574</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>857376073.1923594</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2080146898.34488</v>
+        <v>1948337581.845296</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07911861533382106</v>
+        <v>0.09232192551833837</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04140807626371212</v>
+        <v>0.03206948271124455</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>23</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1040073401.341927</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4283378854.706753</v>
+        <v>4766959947.554727</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1010463500713223</v>
+        <v>0.1221601496034426</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03945882741279358</v>
+        <v>0.04574646794314952</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>32</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2141689409.59634</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1923506365.025226</v>
+        <v>1590308733.61319</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1126467913886656</v>
+        <v>0.1685874806233957</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02804439836720634</v>
+        <v>0.03231936584182026</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>961753170.9022318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2554673905.040069</v>
+        <v>2564666978.34982</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1307008119821136</v>
+        <v>0.09036199118567557</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03948152139259725</v>
+        <v>0.05046285591032369</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1277336984.558824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1980657237.818264</v>
+        <v>1702732018.261124</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1415738979823365</v>
+        <v>0.1346525496866867</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03919128916401662</v>
+        <v>0.0404272956703474</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>990328607.8826298</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3983535872.862551</v>
+        <v>4748411201.267215</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1553028035686932</v>
+        <v>0.1361686573893947</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02745277496771973</v>
+        <v>0.01851541721166947</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>35</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1991767991.430136</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3364770983.176337</v>
+        <v>3370809904.396807</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1144061048209314</v>
+        <v>0.0879242660677339</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02835726014823341</v>
+        <v>0.02333059823481078</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>28</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1682385500.947877</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2897687450.040212</v>
+        <v>2791762201.029746</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1365038711064502</v>
+        <v>0.118036460060625</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03400956132763187</v>
+        <v>0.03335304926281708</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>34</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1448843703.48085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2913563516.564619</v>
+        <v>4657506539.886939</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1257029475717717</v>
+        <v>0.134288134053445</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02409866353323972</v>
+        <v>0.01864972196790587</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>32</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1456781742.184958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2787250285.148646</v>
+        <v>3061052684.430949</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1730707163057659</v>
+        <v>0.2120555031408459</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04808036584883364</v>
+        <v>0.05405474568615403</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>44</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1393625203.441555</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_106.xlsx
+++ b/output/fit_clients/fit_round_106.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1903901675.774496</v>
+        <v>1716762553.38568</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1012953059130126</v>
+        <v>0.08525529797274752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04050282228464208</v>
+        <v>0.03476548093480637</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2561398163.941502</v>
+        <v>2387230556.331955</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1699046705991406</v>
+        <v>0.1352564213937434</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04440575691185402</v>
+        <v>0.04583269517376533</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3755755920.979639</v>
+        <v>4142177848.184833</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1074039441797553</v>
+        <v>0.1114355616815991</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03581480706335974</v>
+        <v>0.02918570658370072</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3128545077.594379</v>
+        <v>3893434186.36806</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09006365801522881</v>
+        <v>0.09563229491844237</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0357524063117786</v>
+        <v>0.05035697813183852</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2793828922.212963</v>
+        <v>2728723539.377225</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0914141682943964</v>
+        <v>0.1299412305448223</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05407025520064426</v>
+        <v>0.04768213023133444</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1924988598.004881</v>
+        <v>1957602623.38272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08512612767341179</v>
+        <v>0.0941970832706735</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0305243426880766</v>
+        <v>0.04480444133513511</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3793901567.865417</v>
+        <v>2393388183.761858</v>
       </c>
       <c r="F8" t="n">
-        <v>0.198801567263458</v>
+        <v>0.160911854739704</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03232266100212623</v>
+        <v>0.03230378184629752</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1822160579.663258</v>
+        <v>1776458652.233861</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1215709027321313</v>
+        <v>0.1985536727194341</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0314500009358516</v>
+        <v>0.03729062734251176</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3678470877.101876</v>
+        <v>5272352271.627297</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1865392996197313</v>
+        <v>0.2073296857818866</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03629647197970053</v>
+        <v>0.04731694182549327</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3347762602.587729</v>
+        <v>3746187808.426093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1272193328952039</v>
+        <v>0.1454012294027403</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03692041374637733</v>
+        <v>0.04995384969513222</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2492459907.874589</v>
+        <v>3016808351.422289</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1984338991289025</v>
+        <v>0.1795371826831313</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03320275914341343</v>
+        <v>0.04767778402253232</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3230145549.02835</v>
+        <v>3810145749.759418</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09650362110946815</v>
+        <v>0.08687130736716538</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02407896572015736</v>
+        <v>0.02782607508605585</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3179781642.765599</v>
+        <v>2518041771.247127</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1799021512641824</v>
+        <v>0.1293817357116225</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04110482061558964</v>
+        <v>0.03364684580950374</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1535424289.370386</v>
+        <v>1129936917.822975</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06586686743666183</v>
+        <v>0.07312157643358855</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04467697578106292</v>
+        <v>0.04934275086527422</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1784402913.17294</v>
+        <v>2147198872.310336</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1145565682892162</v>
+        <v>0.1153281612524325</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04977080674484574</v>
+        <v>0.03759905394240497</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5300470134.148697</v>
+        <v>4230986445.753395</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1725870320504924</v>
+        <v>0.164176530423745</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04593191962855236</v>
+        <v>0.05211898554732068</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3487242555.983225</v>
+        <v>3343247058.702992</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1339834376630666</v>
+        <v>0.159908970482924</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02697258042505368</v>
+        <v>0.02902204135186534</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>996561938.3312674</v>
+        <v>993766962.4134552</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1593018429486188</v>
+        <v>0.1197904002499609</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02438627835881365</v>
+        <v>0.02044989041267726</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1856157052.518588</v>
+        <v>1997308094.506271</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1187290453065159</v>
+        <v>0.1408477858102964</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03047284166293342</v>
+        <v>0.02986318101269067</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1913387499.95196</v>
+        <v>2603867391.309163</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09501653408808849</v>
+        <v>0.09278040439261019</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0293415294524871</v>
+        <v>0.03287894985996127</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3899508690.120135</v>
+        <v>2977195697.578709</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08832370881066835</v>
+        <v>0.1094269629587083</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0535402883272217</v>
+        <v>0.0348658809075427</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1387355759.28831</v>
+        <v>1399140689.494372</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1517078221280189</v>
+        <v>0.1530334239532114</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04829033415062495</v>
+        <v>0.04382075794858472</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3731792105.248506</v>
+        <v>2586587927.287268</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1488085334997265</v>
+        <v>0.1332625123527465</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03698804877107246</v>
+        <v>0.03549440377908009</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>949439321.9879048</v>
+        <v>1360352521.733652</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08044923780077083</v>
+        <v>0.1110768350361925</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02743194546714126</v>
+        <v>0.02196431814809487</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1265595683.28305</v>
+        <v>1037602853.866258</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1143341257326923</v>
+        <v>0.1091540314650632</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03124402581352062</v>
+        <v>0.02788120729369209</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3595085379.331196</v>
+        <v>3744346043.432327</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1493024511557497</v>
+        <v>0.09636234691003187</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02281644458058832</v>
+        <v>0.02250596774904687</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3336679283.894088</v>
+        <v>2386643790.047223</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1185528011145712</v>
+        <v>0.1428147258799788</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0334329949242357</v>
+        <v>0.03955253319911441</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5537159248.840178</v>
+        <v>3759394070.458999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1441686567174809</v>
+        <v>0.1445909788507946</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0449501122299654</v>
+        <v>0.0359054697948074</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1821495401.65045</v>
+        <v>2388943198.095043</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08922740206301709</v>
+        <v>0.09560921067254029</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03111698959758747</v>
+        <v>0.03855868385068909</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1351499188.470834</v>
+        <v>1395514106.230908</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1088251210292524</v>
+        <v>0.09229108614865542</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04301952044571693</v>
+        <v>0.04871595663510436</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1772596725.814979</v>
+        <v>1750517927.436384</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09188849872226378</v>
+        <v>0.07984910736274003</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02998337473168531</v>
+        <v>0.03545100745750537</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2245064097.208561</v>
+        <v>3097866021.793979</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1398050019023249</v>
+        <v>0.1359646569744381</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06024190205129033</v>
+        <v>0.03830128865748559</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1058725700.042785</v>
+        <v>1193946558.281579</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09844232319745377</v>
+        <v>0.07795093045269838</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02739591347390751</v>
+        <v>0.02248755936625775</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>966196103.6968715</v>
+        <v>1051052865.058081</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1056344765906709</v>
+        <v>0.07588800489998936</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02863092368002434</v>
+        <v>0.03297053005296761</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2813036358.333223</v>
+        <v>2078003186.470025</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1744651667910278</v>
+        <v>0.1741735021635702</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01873469110319283</v>
+        <v>0.01896795313159721</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2714399946.653028</v>
+        <v>2031130927.215166</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1069459674576985</v>
+        <v>0.106962298154955</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02777138716723094</v>
+        <v>0.03348422077422442</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1472148552.28003</v>
+        <v>1644253909.170368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.110202472094461</v>
+        <v>0.107829152370515</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02790363277936823</v>
+        <v>0.02723945667315652</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1724571743.210742</v>
+        <v>1496626897.887524</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1634226527229267</v>
+        <v>0.1321913875637481</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0240094089263268</v>
+        <v>0.03164869601496757</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1273950611.447373</v>
+        <v>1499696358.588508</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1049769668630264</v>
+        <v>0.1104420375431659</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03641710355608097</v>
+        <v>0.03756152137666471</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2679319823.006532</v>
+        <v>1953997356.827466</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1467208884654975</v>
+        <v>0.1351693448121088</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04555549781437249</v>
+        <v>0.03648356999503746</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3288793517.570125</v>
+        <v>2833492397.163958</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0827230666013643</v>
+        <v>0.08463004342759113</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02877778349744228</v>
+        <v>0.0373843388029118</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2858213854.945186</v>
+        <v>2995752263.867929</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1425420078176111</v>
+        <v>0.1240739226661883</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02261388051302959</v>
+        <v>0.01680606282868505</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1968100900.499335</v>
+        <v>1458095096.562656</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06848176032336561</v>
+        <v>0.1031595051817531</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0351754510419633</v>
+        <v>0.03230358069653267</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2204608137.53633</v>
+        <v>1728575517.904501</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1508376786288251</v>
+        <v>0.1372446650554155</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05210448014738547</v>
+        <v>0.04919995654451242</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5034116276.851143</v>
+        <v>4570242099.100875</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1249198442141525</v>
+        <v>0.1771809561657408</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05802987293181416</v>
+        <v>0.04437684121499997</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3967890833.225636</v>
+        <v>5083970548.286095</v>
       </c>
       <c r="F47" t="n">
-        <v>0.124059791158901</v>
+        <v>0.1394836850967648</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0435103101372682</v>
+        <v>0.04782463227977756</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3974688594.440127</v>
+        <v>4542243642.837111</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07108599864452639</v>
+        <v>0.07096068282179398</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02908195142415526</v>
+        <v>0.0272171870676312</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1536112267.437264</v>
+        <v>1770086822.978471</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1237098168751336</v>
+        <v>0.1657413283905204</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0350969560480547</v>
+        <v>0.04284640386372238</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2830566140.707243</v>
+        <v>3867181761.831334</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1279979129330634</v>
+        <v>0.1760004147151895</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03593465123839963</v>
+        <v>0.05124732204616463</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1016499817.566158</v>
+        <v>1356722527.309228</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1613856894539485</v>
+        <v>0.1605750011169287</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04489892451606595</v>
+        <v>0.05154907253177404</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4704809693.746209</v>
+        <v>4980518901.982081</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1285077505316902</v>
+        <v>0.09567048862518783</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05722795051425462</v>
+        <v>0.04602430549051442</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2397631237.212095</v>
+        <v>2508869885.902351</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1802560727599035</v>
+        <v>0.1821012288612281</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02597979181056845</v>
+        <v>0.02444434040935814</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4490497126.108974</v>
+        <v>4757169412.573322</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1087987783181635</v>
+        <v>0.128642580432351</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05145165430785645</v>
+        <v>0.03233373565787371</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3714617212.69009</v>
+        <v>4166445733.622901</v>
       </c>
       <c r="F55" t="n">
-        <v>0.146720912219012</v>
+        <v>0.197718579242896</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03251213539572541</v>
+        <v>0.0309760731658727</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1642123420.127132</v>
+        <v>1870447298.00157</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1151919026755187</v>
+        <v>0.1003142008461642</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04170285676741646</v>
+        <v>0.0453747466729376</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3430585489.891942</v>
+        <v>3228545959.553322</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1353103385198084</v>
+        <v>0.1640513629848322</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01920689465819353</v>
+        <v>0.02620600433724503</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1625299866.569678</v>
+        <v>1687468066.525065</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1612725814011965</v>
+        <v>0.1344576215464717</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0366382741101839</v>
+        <v>0.03854971028048303</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3892391725.470011</v>
+        <v>4728288152.436194</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1110103754349047</v>
+        <v>0.09436345129517845</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04967890775049382</v>
+        <v>0.03806138458412485</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2851048428.181097</v>
+        <v>3478425749.443847</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1409455092937455</v>
+        <v>0.1749289689031768</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02722473564630516</v>
+        <v>0.02863182735399427</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2159786725.841815</v>
+        <v>2929311626.718892</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1279445599541484</v>
+        <v>0.1475319246191857</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02013823198316204</v>
+        <v>0.02765010806897306</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1461770523.098215</v>
+        <v>1417939978.252423</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1467588547816708</v>
+        <v>0.1278472409909878</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04404853700066792</v>
+        <v>0.04646911389828341</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5313595934.317736</v>
+        <v>3522592391.165164</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09115447313734117</v>
+        <v>0.1039380671336601</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04713783908444938</v>
+        <v>0.03331553677259539</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4226143701.043664</v>
+        <v>3353417822.579728</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1316444293140497</v>
+        <v>0.1333133263998644</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03240166016554794</v>
+        <v>0.02948058635360882</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4333094280.168683</v>
+        <v>5598781742.920901</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1401915354853555</v>
+        <v>0.1080273032732599</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02496045461322279</v>
+        <v>0.02966211302915204</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5623634844.621808</v>
+        <v>3687142830.903403</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1448142935408343</v>
+        <v>0.1012624114657864</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03169266823032509</v>
+        <v>0.03604398147134518</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2559977318.188088</v>
+        <v>3174405113.471938</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06464591829327174</v>
+        <v>0.08381339658206048</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04639546054707586</v>
+        <v>0.03628697295577419</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5416754231.52547</v>
+        <v>4955196004.830456</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1059454099566427</v>
+        <v>0.1113931739229643</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03639926108318756</v>
+        <v>0.05020914097871804</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2283095511.720334</v>
+        <v>2315371471.604819</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1733383731944898</v>
+        <v>0.1240138102371088</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04337424265519021</v>
+        <v>0.04837866781662349</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2398934213.155103</v>
+        <v>3545523779.221777</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08137522657039596</v>
+        <v>0.07730793105600943</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03852422610093155</v>
+        <v>0.03983083727285795</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4549815141.647563</v>
+        <v>5046036825.194668</v>
       </c>
       <c r="F71" t="n">
-        <v>0.118240062340615</v>
+        <v>0.1320331610041865</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02536712550997046</v>
+        <v>0.03187134151039422</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2087280649.69081</v>
+        <v>2151593783.216439</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08816940943352795</v>
+        <v>0.07083594697347004</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03525478041190179</v>
+        <v>0.04696033339415824</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2276132844.360873</v>
+        <v>2853380353.422766</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104610815979043</v>
+        <v>0.0927680231691763</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04894422996259987</v>
+        <v>0.03337367920195451</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2997060364.933034</v>
+        <v>3136578549.4472</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1790041972030271</v>
+        <v>0.1827364852196779</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02789613894617421</v>
+        <v>0.03082342057807254</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2197055040.346684</v>
+        <v>2213687236.173606</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1408171494984717</v>
+        <v>0.1380882880080658</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02463521303669822</v>
+        <v>0.03542865020155315</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3295838849.385679</v>
+        <v>3752576334.670425</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09918668884603171</v>
+        <v>0.07792515700428976</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03371530779429041</v>
+        <v>0.02382112055029708</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2251595270.324373</v>
+        <v>1904591875.977128</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1825908084494592</v>
+        <v>0.1760777134628887</v>
       </c>
       <c r="G77" t="n">
-        <v>0.031507880750126</v>
+        <v>0.02506664536779934</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4005820121.101431</v>
+        <v>3874747538.517346</v>
       </c>
       <c r="F78" t="n">
-        <v>0.100829543758311</v>
+        <v>0.1236557066349201</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05245972331328413</v>
+        <v>0.04094831500035664</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1569570032.629419</v>
+        <v>1285840560.495817</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1713734979902336</v>
+        <v>0.1234739189942705</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0277140728575102</v>
+        <v>0.02832091880771625</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3717516564.617943</v>
+        <v>3802350060.337859</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06960258708372913</v>
+        <v>0.1114611645237276</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02519901228470769</v>
+        <v>0.0326517031920226</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3868291590.751225</v>
+        <v>3456520486.24793</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1030315825352555</v>
+        <v>0.1175591312743403</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0253391532094032</v>
+        <v>0.02486193298462622</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4162162089.463932</v>
+        <v>4312379516.316905</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1952632468082137</v>
+        <v>0.1436428577561082</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02565775373126119</v>
+        <v>0.02960258262891526</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2175704761.557829</v>
+        <v>1965571023.806333</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09734396506165023</v>
+        <v>0.1228950502595723</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03321466059387569</v>
+        <v>0.04359981733061508</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1935537727.802333</v>
+        <v>2536151556.035146</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07690779127054768</v>
+        <v>0.07769658559287497</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03542492211197656</v>
+        <v>0.04084080500061364</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2829953406.570291</v>
+        <v>3124888987.233414</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1152783376332159</v>
+        <v>0.1511562180286919</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04437743887661678</v>
+        <v>0.05617871436043951</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1785657672.731545</v>
+        <v>1854743292.093034</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1116686359519498</v>
+        <v>0.1308944531074695</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02620984019620581</v>
+        <v>0.01974978938347052</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1043325764.818855</v>
+        <v>1490584683.661123</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1165033435941231</v>
+        <v>0.1629482658787424</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03941314934398765</v>
+        <v>0.03282855846967875</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2573501155.951295</v>
+        <v>2266627609.079127</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1752243182124336</v>
+        <v>0.1535937877190098</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03265570690080764</v>
+        <v>0.02541042279690029</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3471282430.615432</v>
+        <v>2341901153.544447</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1356690925415206</v>
+        <v>0.1308049774773089</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03527339653672006</v>
+        <v>0.04034321942493257</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1730080000.11842</v>
+        <v>2119843305.835665</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1048959664191295</v>
+        <v>0.09395083770111719</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04062962282824387</v>
+        <v>0.04279085570583613</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1842448702.751477</v>
+        <v>1356920197.961842</v>
       </c>
       <c r="F91" t="n">
-        <v>0.123079875376316</v>
+        <v>0.1753621922432051</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05638900240827574</v>
+        <v>0.04930561121648633</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1948337581.845296</v>
+        <v>1961294098.134764</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09232192551833837</v>
+        <v>0.06773780814214966</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03206948271124455</v>
+        <v>0.04380886689342527</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4766959947.554727</v>
+        <v>4047126839.293387</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1221601496034426</v>
+        <v>0.0997399025211689</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04574646794314952</v>
+        <v>0.04380940152542468</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1590308733.61319</v>
+        <v>2399596738.447655</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1685874806233957</v>
+        <v>0.1325826106670442</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03231936584182026</v>
+        <v>0.03533083913520531</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2564666978.34982</v>
+        <v>2209424155.014219</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09036199118567557</v>
+        <v>0.128849995800539</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05046285591032369</v>
+        <v>0.03610971526963272</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1702732018.261124</v>
+        <v>1912226921.061686</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1346525496866867</v>
+        <v>0.1214303682976334</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0404272956703474</v>
+        <v>0.03168882958034734</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4748411201.267215</v>
+        <v>5132279233.720429</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1361686573893947</v>
+        <v>0.133856291233144</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01851541721166947</v>
+        <v>0.02636377908507193</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3370809904.396807</v>
+        <v>3512893284.128388</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0879242660677339</v>
+        <v>0.08477441638587987</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02333059823481078</v>
+        <v>0.03006503280030479</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2791762201.029746</v>
+        <v>2898266527.226782</v>
       </c>
       <c r="F99" t="n">
-        <v>0.118036460060625</v>
+        <v>0.09069425535501163</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03335304926281708</v>
+        <v>0.02554684151056157</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4657506539.886939</v>
+        <v>4460831159.894543</v>
       </c>
       <c r="F100" t="n">
-        <v>0.134288134053445</v>
+        <v>0.1194135005991458</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01864972196790587</v>
+        <v>0.02526812500183918</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3061052684.430949</v>
+        <v>2483386390.536307</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2120555031408459</v>
+        <v>0.2113343666558667</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05405474568615403</v>
+        <v>0.03616752242019005</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_106.xlsx
+++ b/output/fit_clients/fit_round_106.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1716762553.38568</v>
+        <v>1977529521.584064</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08525529797274752</v>
+        <v>0.111087544252569</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03476548093480637</v>
+        <v>0.02995516438805774</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2387230556.331955</v>
+        <v>1747051335.706105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1352564213937434</v>
+        <v>0.1802459465682245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04583269517376533</v>
+        <v>0.03597538142951175</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4142177848.184833</v>
+        <v>4876218019.977203</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1114355616815991</v>
+        <v>0.1349242005792408</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02918570658370072</v>
+        <v>0.03613040068824323</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>65</v>
+      </c>
+      <c r="J4" t="n">
+        <v>106</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3893434186.36806</v>
+        <v>2682713645.884586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09563229491844237</v>
+        <v>0.1096583770947946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05035697813183852</v>
+        <v>0.04958148741518335</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>104</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2728723539.377225</v>
+        <v>2698098031.72417</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1299412305448223</v>
+        <v>0.09520981871681608</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04768213023133444</v>
+        <v>0.04177171082106362</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1957602623.38272</v>
+        <v>2946922495.194469</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0941970832706735</v>
+        <v>0.08542671907180353</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04480444133513511</v>
+        <v>0.04440385059643147</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2393388183.761858</v>
+        <v>3137172920.523455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.160911854739704</v>
+        <v>0.1663074907085959</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03230378184629752</v>
+        <v>0.02070283466046273</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>103</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1776458652.233861</v>
+        <v>1498526350.822548</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1985536727194341</v>
+        <v>0.1950409114171353</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03729062734251176</v>
+        <v>0.03740172070986836</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5272352271.627297</v>
+        <v>3680026278.99406</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2073296857818866</v>
+        <v>0.1674673829096145</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04731694182549327</v>
+        <v>0.05411285027964121</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>105</v>
+      </c>
+      <c r="K10" t="n">
+        <v>114.3888054609674</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3746187808.426093</v>
+        <v>3324345530.856065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1454012294027403</v>
+        <v>0.1711328243621607</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04995384969513222</v>
+        <v>0.03589968285902903</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>105</v>
+      </c>
+      <c r="K11" t="n">
+        <v>92.54025266408289</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3016808351.422289</v>
+        <v>2325887431.83227</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1795371826831313</v>
+        <v>0.1701186198291477</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04767778402253232</v>
+        <v>0.04126810182224445</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3810145749.759418</v>
+        <v>4550017895.717658</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08687130736716538</v>
+        <v>0.08672495039157864</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02782607508605585</v>
+        <v>0.03003176090057346</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>53</v>
+      </c>
+      <c r="J13" t="n">
+        <v>105</v>
+      </c>
+      <c r="K13" t="n">
+        <v>151.945772399981</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2518041771.247127</v>
+        <v>3077171767.07217</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1293817357116225</v>
+        <v>0.1299754690841989</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03364684580950374</v>
+        <v>0.03013220032635804</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1129936917.822975</v>
+        <v>1815609437.97089</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07312157643358855</v>
+        <v>0.1091565586557077</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04934275086527422</v>
+        <v>0.0438358343958656</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2147198872.310336</v>
+        <v>2816238695.837372</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1153281612524325</v>
+        <v>0.1070205132319832</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03759905394240497</v>
+        <v>0.03191931504144934</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4230986445.753395</v>
+        <v>5104764764.08589</v>
       </c>
       <c r="F17" t="n">
-        <v>0.164176530423745</v>
+        <v>0.1601249008149949</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05211898554732068</v>
+        <v>0.0475276491084697</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>51</v>
+      </c>
+      <c r="J17" t="n">
+        <v>105</v>
+      </c>
+      <c r="K17" t="n">
+        <v>140.8249827081252</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3343247058.702992</v>
+        <v>3903475183.195646</v>
       </c>
       <c r="F18" t="n">
-        <v>0.159908970482924</v>
+        <v>0.1756784264998968</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02902204135186534</v>
+        <v>0.02381437334871788</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>105</v>
+      </c>
+      <c r="K18" t="n">
+        <v>111.640296986001</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>993766962.4134552</v>
+        <v>1253084393.665637</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1197904002499609</v>
+        <v>0.1671329460919958</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02044989041267726</v>
+        <v>0.01769723166043522</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1997308094.506271</v>
+        <v>2255087883.414859</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1408477858102964</v>
+        <v>0.1404927453551293</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02986318101269067</v>
+        <v>0.02771346536205282</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2603867391.309163</v>
+        <v>2144135753.86197</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09278040439261019</v>
+        <v>0.06668685098455886</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03287894985996127</v>
+        <v>0.04166156577945229</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2977195697.578709</v>
+        <v>3212632070.483819</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1094269629587083</v>
+        <v>0.08793156773691407</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0348658809075427</v>
+        <v>0.05540658672159653</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>26</v>
+      </c>
+      <c r="J22" t="n">
+        <v>103</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1399140689.494372</v>
+        <v>1406601623.466443</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1530334239532114</v>
+        <v>0.1447710238791616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04382075794858472</v>
+        <v>0.03538079981835272</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2586587927.287268</v>
+        <v>3728055312.97847</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1332625123527465</v>
+        <v>0.146532840511457</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03549440377908009</v>
+        <v>0.03397580783858509</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>31</v>
+      </c>
+      <c r="J24" t="n">
+        <v>106</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1360352521.733652</v>
+        <v>1297359981.363961</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1110768350361925</v>
+        <v>0.1227234975207375</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02196431814809487</v>
+        <v>0.02974797184493176</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1037602853.866258</v>
+        <v>947943167.6076301</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1091540314650632</v>
+        <v>0.1127845629532431</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02788120729369209</v>
+        <v>0.03378985504132809</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3744346043.432327</v>
+        <v>3495029993.200629</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09636234691003187</v>
+        <v>0.1212621551598863</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02250596774904687</v>
+        <v>0.01803990160242554</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>41</v>
+      </c>
+      <c r="J27" t="n">
+        <v>106</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2386643790.047223</v>
+        <v>2623866227.942254</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1428147258799788</v>
+        <v>0.09291251174377663</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03955253319911441</v>
+        <v>0.05028476848657948</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3759394070.458999</v>
+        <v>5692646904.676116</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1445909788507946</v>
+        <v>0.1084450516767167</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0359054697948074</v>
+        <v>0.03870282479260799</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>99</v>
+      </c>
+      <c r="J29" t="n">
+        <v>106</v>
+      </c>
+      <c r="K29" t="n">
+        <v>187.1798094053892</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2388943198.095043</v>
+        <v>1900305654.676994</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09560921067254029</v>
+        <v>0.1385323589152611</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03855868385068909</v>
+        <v>0.03104870843710821</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1395514106.230908</v>
+        <v>947967323.7603955</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09229108614865542</v>
+        <v>0.07591597060174196</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04871595663510436</v>
+        <v>0.05140899071866127</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1750517927.436384</v>
+        <v>1501257636.535966</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07984910736274003</v>
+        <v>0.120157607125343</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03545100745750537</v>
+        <v>0.03646965740035988</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3097866021.793979</v>
+        <v>2059020093.545753</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1359646569744381</v>
+        <v>0.1812509693216224</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03830128865748559</v>
+        <v>0.06070123188017407</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1193946558.281579</v>
+        <v>1557025084.984603</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07795093045269838</v>
+        <v>0.1153748559248484</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02248755936625775</v>
+        <v>0.02195549166159487</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1051052865.058081</v>
+        <v>825848965.8498254</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07588800489998936</v>
+        <v>0.0930401619183715</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03297053005296761</v>
+        <v>0.04424987739305398</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2078003186.470025</v>
+        <v>3016182509.853016</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1741735021635702</v>
+        <v>0.1543818614591597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01896795313159721</v>
+        <v>0.02700186667131487</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2031130927.215166</v>
+        <v>2635707542.941541</v>
       </c>
       <c r="F37" t="n">
-        <v>0.106962298154955</v>
+        <v>0.08236094877837857</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03348422077422442</v>
+        <v>0.03621040579178045</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1644253909.170368</v>
+        <v>1375855397.627317</v>
       </c>
       <c r="F38" t="n">
-        <v>0.107829152370515</v>
+        <v>0.0867890407123145</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02723945667315652</v>
+        <v>0.02465600200945495</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1496626897.887524</v>
+        <v>1997390762.208811</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1321913875637481</v>
+        <v>0.1333676854350707</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03164869601496757</v>
+        <v>0.02346665272055592</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1499696358.588508</v>
+        <v>1519015149.951517</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1104420375431659</v>
+        <v>0.1515659101286612</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03756152137666471</v>
+        <v>0.05322939856007983</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1953997356.827466</v>
+        <v>2789113930.592782</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1351693448121088</v>
+        <v>0.1333318720905442</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03648356999503746</v>
+        <v>0.02968594056943588</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2833492397.163958</v>
+        <v>2696810857.807058</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08463004342759113</v>
+        <v>0.1114730732445729</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0373843388029118</v>
+        <v>0.02821613531429867</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>104</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2995752263.867929</v>
+        <v>2698083708.105373</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1240739226661883</v>
+        <v>0.1827237954898653</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01680606282868505</v>
+        <v>0.01999298818479916</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1458095096.562656</v>
+        <v>1782087426.04555</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1031595051817531</v>
+        <v>0.06397360124478411</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03230358069653267</v>
+        <v>0.03232583462586055</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1728575517.904501</v>
+        <v>2355539264.751999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1372446650554155</v>
+        <v>0.1912387392212979</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04919995654451242</v>
+        <v>0.04032083540212451</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4570242099.100875</v>
+        <v>5411612167.995727</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1771809561657408</v>
+        <v>0.1453311346776005</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04437684121499997</v>
+        <v>0.03882765363215445</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>61</v>
+      </c>
+      <c r="J46" t="n">
+        <v>105</v>
+      </c>
+      <c r="K46" t="n">
+        <v>161.0798660649382</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5083970548.286095</v>
+        <v>4921030728.075784</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1394836850967648</v>
+        <v>0.1744806876459828</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04782463227977756</v>
+        <v>0.05785068202251151</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>46</v>
+      </c>
+      <c r="J47" t="n">
+        <v>106</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4542243642.837111</v>
+        <v>4577967543.11894</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07096068282179398</v>
+        <v>0.1093014189758393</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0272171870676312</v>
+        <v>0.02827478081590229</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>39</v>
+      </c>
+      <c r="J48" t="n">
+        <v>106</v>
+      </c>
+      <c r="K48" t="n">
+        <v>162.1451825338271</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1770086822.978471</v>
+        <v>1694416968.444463</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1657413283905204</v>
+        <v>0.161239328691828</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04284640386372238</v>
+        <v>0.03942489408216357</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3867181761.831334</v>
+        <v>2821024768.822978</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1760004147151895</v>
+        <v>0.12040120130119</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05124732204616463</v>
+        <v>0.03689463893518291</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>37</v>
+      </c>
+      <c r="J50" t="n">
+        <v>103</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1356722527.309228</v>
+        <v>1196715514.625425</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1605750011169287</v>
+        <v>0.1383714006947536</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05154907253177404</v>
+        <v>0.05341360869702455</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4980518901.982081</v>
+        <v>4025276655.322123</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09567048862518783</v>
+        <v>0.1287513362262488</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04602430549051442</v>
+        <v>0.04135839318065438</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>81</v>
+      </c>
+      <c r="J52" t="n">
+        <v>106</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2508869885.902351</v>
+        <v>2840788218.647658</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1821012288612281</v>
+        <v>0.1923271429252491</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02444434040935814</v>
+        <v>0.03232278464871249</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4757169412.573322</v>
+        <v>3654391381.96744</v>
       </c>
       <c r="F54" t="n">
-        <v>0.128642580432351</v>
+        <v>0.1130417942242139</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03233373565787371</v>
+        <v>0.04992133221604844</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>48</v>
+      </c>
+      <c r="J54" t="n">
+        <v>105</v>
+      </c>
+      <c r="K54" t="n">
+        <v>102.0977441222785</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4166445733.622901</v>
+        <v>3486810837.811978</v>
       </c>
       <c r="F55" t="n">
-        <v>0.197718579242896</v>
+        <v>0.1632398137659823</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0309760731658727</v>
+        <v>0.0305977126622939</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>48</v>
+      </c>
+      <c r="J55" t="n">
+        <v>106</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1870447298.00157</v>
+        <v>1837837536.979112</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1003142008461642</v>
+        <v>0.1428065687621913</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0453747466729376</v>
+        <v>0.04844322006349434</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3228545959.553322</v>
+        <v>3497704301.920591</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1640513629848322</v>
+        <v>0.1725471122487258</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02620600433724503</v>
+        <v>0.02126139400822989</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>41</v>
+      </c>
+      <c r="J57" t="n">
+        <v>105</v>
+      </c>
+      <c r="K57" t="n">
+        <v>88.66486668867877</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1687468066.525065</v>
+        <v>1862329194.9606</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1344576215464717</v>
+        <v>0.1586163339820033</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03854971028048303</v>
+        <v>0.03562694653982827</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4728288152.436194</v>
+        <v>3785675473.476482</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09436345129517845</v>
+        <v>0.07898724615375149</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03806138458412485</v>
+        <v>0.03104020654103653</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>51</v>
+      </c>
+      <c r="J59" t="n">
+        <v>106</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3478425749.443847</v>
+        <v>3520822842.728953</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1749289689031768</v>
+        <v>0.1999059810483288</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02863182735399427</v>
+        <v>0.03021574169859337</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>106</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2929311626.718892</v>
+        <v>3369964909.056815</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1475319246191857</v>
+        <v>0.1575753038869469</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02765010806897306</v>
+        <v>0.02258604801648102</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1417939978.252423</v>
+        <v>1330037923.515529</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1278472409909878</v>
+        <v>0.1229855898423974</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04646911389828341</v>
+        <v>0.04920841833036525</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3522592391.165164</v>
+        <v>5291561524.987854</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1039380671336601</v>
+        <v>0.08239139597778822</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03331553677259539</v>
+        <v>0.04132531966809834</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>52</v>
+      </c>
+      <c r="J63" t="n">
+        <v>106</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3353417822.579728</v>
+        <v>3453586435.99778</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1333133263998644</v>
+        <v>0.1483532276880632</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02948058635360882</v>
+        <v>0.03194869384576828</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>52</v>
+      </c>
+      <c r="J64" t="n">
+        <v>106</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5598781742.920901</v>
+        <v>4767447461.434796</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1080273032732599</v>
+        <v>0.1534337303615505</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02966211302915204</v>
+        <v>0.02580491569378813</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>87</v>
+      </c>
+      <c r="J65" t="n">
+        <v>106</v>
+      </c>
+      <c r="K65" t="n">
+        <v>164.1587046206379</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3687142830.903403</v>
+        <v>4115753892.816783</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1012624114657864</v>
+        <v>0.1629258614039855</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03604398147134518</v>
+        <v>0.04736343006707671</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>52</v>
+      </c>
+      <c r="J66" t="n">
+        <v>105</v>
+      </c>
+      <c r="K66" t="n">
+        <v>122.3824522027076</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3174405113.471938</v>
+        <v>2276850912.644526</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08381339658206048</v>
+        <v>0.06595227100901617</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03628697295577419</v>
+        <v>0.04345284223340931</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4955196004.830456</v>
+        <v>5715367433.210535</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1113931739229643</v>
+        <v>0.1582601003074617</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05020914097871804</v>
+        <v>0.04391871126973524</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>53</v>
+      </c>
+      <c r="J68" t="n">
+        <v>105</v>
+      </c>
+      <c r="K68" t="n">
+        <v>148.8063025364158</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2315371471.604819</v>
+        <v>1957754203.278235</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1240138102371088</v>
+        <v>0.1202730589672709</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04837866781662349</v>
+        <v>0.04501164271523005</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2907,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3545523779.221777</v>
+        <v>2551254794.180002</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07730793105600943</v>
+        <v>0.07635345519394908</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03983083727285795</v>
+        <v>0.03218768165995933</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>105</v>
+      </c>
+      <c r="K70" t="n">
+        <v>46.74414688485819</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5046036825.194668</v>
+        <v>4883996586.4833</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1320331610041865</v>
+        <v>0.1707966816600892</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03187134151039422</v>
+        <v>0.02868690700417726</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>86</v>
+      </c>
+      <c r="J71" t="n">
+        <v>106</v>
+      </c>
+      <c r="K71" t="n">
+        <v>163.1521963097405</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2151593783.216439</v>
+        <v>1547862377.312934</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07083594697347004</v>
+        <v>0.07925114721834468</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04696033339415824</v>
+        <v>0.0349604148924172</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2853380353.422766</v>
+        <v>2731341308.33481</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0927680231691763</v>
+        <v>0.09619498401933602</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03337367920195451</v>
+        <v>0.04696102508649954</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3136578549.4472</v>
+        <v>3549944458.274087</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1827364852196779</v>
+        <v>0.168443552689777</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03082342057807254</v>
+        <v>0.02664743532632381</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>35</v>
+      </c>
+      <c r="J74" t="n">
+        <v>106</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2213687236.173606</v>
+        <v>2371610612.800709</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1380882880080658</v>
+        <v>0.1355135899216352</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03542865020155315</v>
+        <v>0.02778320461672473</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3752576334.670425</v>
+        <v>5120568610.546222</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07792515700428976</v>
+        <v>0.116069653092121</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02382112055029708</v>
+        <v>0.03005826063567517</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>49</v>
+      </c>
+      <c r="J76" t="n">
+        <v>105</v>
+      </c>
+      <c r="K76" t="n">
+        <v>128.9568030546137</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1904591875.977128</v>
+        <v>1542573903.15341</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1760777134628887</v>
+        <v>0.1766198637931336</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02506664536779934</v>
+        <v>0.02935197141232552</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3874747538.517346</v>
+        <v>2953450621.937834</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1236557066349201</v>
+        <v>0.1054671527580984</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04094831500035664</v>
+        <v>0.04706545994727528</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>53</v>
+      </c>
+      <c r="J78" t="n">
+        <v>104</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1285840560.495817</v>
+        <v>1198050902.834002</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1234739189942705</v>
+        <v>0.1532371522311686</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02832091880771625</v>
+        <v>0.02786749337129284</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3802350060.337859</v>
+        <v>5137621119.293704</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1114611645237276</v>
+        <v>0.1088079160898005</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0326517031920226</v>
+        <v>0.03627523439419898</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>51</v>
+      </c>
+      <c r="J80" t="n">
+        <v>105</v>
+      </c>
+      <c r="K80" t="n">
+        <v>120.2198408681111</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3456520486.24793</v>
+        <v>3164371269.377755</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1175591312743403</v>
+        <v>0.1049165403176294</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02486193298462622</v>
+        <v>0.03265712285080616</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>47</v>
+      </c>
+      <c r="J81" t="n">
+        <v>102</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4312379516.316905</v>
+        <v>5401287831.397321</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1436428577561082</v>
+        <v>0.161714467245806</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02960258262891526</v>
+        <v>0.02475037951794156</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>70</v>
+      </c>
+      <c r="J82" t="n">
+        <v>106</v>
+      </c>
+      <c r="K82" t="n">
+        <v>166.702684361201</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1965571023.806333</v>
+        <v>1680032087.622326</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1228950502595723</v>
+        <v>0.1025389414215918</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04359981733061508</v>
+        <v>0.03434377786496501</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2536151556.035146</v>
+        <v>2441886773.220528</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07769658559287497</v>
+        <v>0.07431776401314438</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04084080500061364</v>
+        <v>0.05016234360972816</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3124888987.233414</v>
+        <v>3526185641.156033</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1511562180286919</v>
+        <v>0.1261160509718313</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05617871436043951</v>
+        <v>0.04440006899889673</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1854743292.093034</v>
+        <v>2637221246.970332</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1308944531074695</v>
+        <v>0.1457534435212051</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01974978938347052</v>
+        <v>0.02660592342332059</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1490584683.661123</v>
+        <v>1488084498.101676</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1629482658787424</v>
+        <v>0.1319158442479174</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03282855846967875</v>
+        <v>0.04200065282901363</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2266627609.079127</v>
+        <v>3583248886.174863</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1535937877190098</v>
+        <v>0.1595978137377361</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02541042279690029</v>
+        <v>0.02733324663355694</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2341901153.544447</v>
+        <v>2404453734.44822</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1308049774773089</v>
+        <v>0.1022869056267223</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04034321942493257</v>
+        <v>0.02651865434146514</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2119843305.835665</v>
+        <v>1766710369.398378</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09395083770111719</v>
+        <v>0.08729441839729546</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04279085570583613</v>
+        <v>0.05294221651750253</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1356920197.961842</v>
+        <v>1640923218.28771</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1753621922432051</v>
+        <v>0.1290837712641049</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04930561121648633</v>
+        <v>0.03751435098108277</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1961294098.134764</v>
+        <v>1826755849.832804</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06773780814214966</v>
+        <v>0.1045426669394501</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04380886689342527</v>
+        <v>0.04717114407029175</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4047126839.293387</v>
+        <v>4417273984.98296</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0997399025211689</v>
+        <v>0.1325999109994551</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04380940152542468</v>
+        <v>0.04481203451391458</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>48</v>
+      </c>
+      <c r="J93" t="n">
+        <v>106</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2399596738.447655</v>
+        <v>2238963966.460217</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1325826106670442</v>
+        <v>0.1471422776703822</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03533083913520531</v>
+        <v>0.03284109987870733</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2209424155.014219</v>
+        <v>3060842108.893327</v>
       </c>
       <c r="F95" t="n">
-        <v>0.128849995800539</v>
+        <v>0.09480275468713009</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03610971526963272</v>
+        <v>0.04045531107835514</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1912226921.061686</v>
+        <v>1574782174.168217</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1214303682976334</v>
+        <v>0.1155660073626258</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03168882958034734</v>
+        <v>0.03744673863841705</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5132279233.720429</v>
+        <v>4455533529.555378</v>
       </c>
       <c r="F97" t="n">
-        <v>0.133856291233144</v>
+        <v>0.176573281462284</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02636377908507193</v>
+        <v>0.0290051462362272</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>51</v>
+      </c>
+      <c r="J97" t="n">
+        <v>105</v>
+      </c>
+      <c r="K97" t="n">
+        <v>150.3786722331716</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3512893284.128388</v>
+        <v>3796204854.406009</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08477441638587987</v>
+        <v>0.1105396739489425</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03006503280030479</v>
+        <v>0.02539294826256435</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>24</v>
+      </c>
+      <c r="J98" t="n">
+        <v>105</v>
+      </c>
+      <c r="K98" t="n">
+        <v>97.36033336789468</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2898266527.226782</v>
+        <v>2073810701.720493</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09069425535501163</v>
+        <v>0.1084804279147437</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02554684151056157</v>
+        <v>0.03521398508563698</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4460831159.894543</v>
+        <v>4690022168.090747</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1194135005991458</v>
+        <v>0.1428733943741209</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02526812500183918</v>
+        <v>0.02153169679642062</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>43</v>
+      </c>
+      <c r="J100" t="n">
+        <v>106</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2483386390.536307</v>
+        <v>2493645413.862624</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2113343666558667</v>
+        <v>0.1994610469824447</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03616752242019005</v>
+        <v>0.03646410348789545</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
